--- a/src/main/resources/datasources/france/infoProffFrance.xlsx
+++ b/src/main/resources/datasources/france/infoProffFrance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\france\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE44ABF6-2D88-4573-8764-DAB716F168B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB85D92-82AB-44E2-94D8-CE24866CC10F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
   <si>
     <t>Num Matricule</t>
   </si>
@@ -146,6 +146,36 @@
   </si>
   <si>
     <t>France</t>
+  </si>
+  <si>
+    <t>pascadre</t>
+  </si>
+  <si>
+    <t>pas cadre</t>
+  </si>
+  <si>
+    <t>agent de securite</t>
+  </si>
+  <si>
+    <t>cadre</t>
+  </si>
+  <si>
+    <t>Informaticien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cadre</t>
+  </si>
+  <si>
+    <t>developpeur</t>
+  </si>
+  <si>
+    <t>gestionnaire comptable</t>
+  </si>
+  <si>
+    <t>agent d entretien</t>
+  </si>
+  <si>
+    <t>gestionnaire production</t>
   </si>
 </sst>
 </file>
@@ -508,15 +538,15 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
@@ -568,6 +598,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
@@ -600,6 +633,12 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
@@ -629,6 +668,12 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
@@ -658,6 +703,12 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
@@ -687,6 +738,12 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
@@ -716,6 +773,12 @@
       <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" t="s">
         <v>40</v>
       </c>
@@ -745,6 +808,12 @@
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" t="s">
         <v>40</v>
       </c>
@@ -774,6 +843,12 @@
       <c r="B9">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" t="s">
         <v>40</v>
       </c>
@@ -803,6 +878,12 @@
       <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" t="s">
         <v>40</v>
       </c>
@@ -832,6 +913,12 @@
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" t="s">
         <v>40</v>
       </c>
@@ -861,6 +948,12 @@
       <c r="B12">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
@@ -890,6 +983,12 @@
       <c r="B13">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
@@ -919,6 +1018,12 @@
       <c r="B14">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
@@ -948,6 +1053,12 @@
       <c r="B15">
         <v>13</v>
       </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
@@ -977,6 +1088,12 @@
       <c r="B16">
         <v>14</v>
       </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
@@ -1006,6 +1123,12 @@
       <c r="B17">
         <v>15</v>
       </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" t="s">
         <v>40</v>
       </c>
@@ -1035,6 +1158,12 @@
       <c r="B18">
         <v>16</v>
       </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
@@ -1064,6 +1193,12 @@
       <c r="B19">
         <v>17</v>
       </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
@@ -1093,6 +1228,12 @@
       <c r="B20">
         <v>18</v>
       </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
       <c r="E20" t="s">
         <v>40</v>
       </c>
@@ -1121,6 +1262,12 @@
       </c>
       <c r="B21">
         <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>

--- a/src/main/resources/datasources/france/infoProffFrance.xlsx
+++ b/src/main/resources/datasources/france/infoProffFrance.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\france\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\datasources\datasources\france\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB85D92-82AB-44E2-94D8-CE24866CC10F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128962C7-C02F-4FAF-8F1D-F961E59C7E73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="InfoProfessionel" sheetId="1" r:id="rId1"/>
+    <sheet name="InfoProff" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="61">
   <si>
     <t>Num Matricule</t>
   </si>
@@ -52,12 +52,18 @@
     <t>Salaire De Base</t>
   </si>
   <si>
+    <t>Situation Matrimoniale</t>
+  </si>
+  <si>
     <t>Pays</t>
   </si>
   <si>
     <t>Mecanicien</t>
   </si>
   <si>
+    <t>Paris</t>
+  </si>
+  <si>
     <t>CDI</t>
   </si>
   <si>
@@ -82,81 +88,78 @@
     <t>Communication</t>
   </si>
   <si>
-    <t>ANG001</t>
-  </si>
-  <si>
-    <t>ANG002</t>
-  </si>
-  <si>
-    <t>ANG003</t>
-  </si>
-  <si>
-    <t>ANG004</t>
-  </si>
-  <si>
-    <t>ANG005</t>
-  </si>
-  <si>
-    <t>ANG006</t>
-  </si>
-  <si>
-    <t>ANG007</t>
-  </si>
-  <si>
-    <t>ANG008</t>
-  </si>
-  <si>
-    <t>ANG009</t>
-  </si>
-  <si>
-    <t>ANG010</t>
-  </si>
-  <si>
-    <t>ANG011</t>
-  </si>
-  <si>
-    <t>ANG012</t>
-  </si>
-  <si>
-    <t>ANG013</t>
-  </si>
-  <si>
-    <t>ANG014</t>
-  </si>
-  <si>
-    <t>ANG015</t>
-  </si>
-  <si>
-    <t>ANG016</t>
-  </si>
-  <si>
-    <t>ANG017</t>
-  </si>
-  <si>
-    <t>ANG018</t>
-  </si>
-  <si>
-    <t>ANG019</t>
-  </si>
-  <si>
-    <t>ANG020</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
-    <t>pascadre</t>
+    <t>Marié</t>
+  </si>
+  <si>
+    <t>Developpeur</t>
+  </si>
+  <si>
+    <t>FRA001</t>
+  </si>
+  <si>
+    <t>FRA002</t>
+  </si>
+  <si>
+    <t>FRA003</t>
+  </si>
+  <si>
+    <t>FRA004</t>
+  </si>
+  <si>
+    <t>FRA005</t>
+  </si>
+  <si>
+    <t>FRA006</t>
+  </si>
+  <si>
+    <t>FRA007</t>
+  </si>
+  <si>
+    <t>FRA008</t>
+  </si>
+  <si>
+    <t>FRA009</t>
+  </si>
+  <si>
+    <t>FRA010</t>
+  </si>
+  <si>
+    <t>FRA011</t>
+  </si>
+  <si>
+    <t>FRA012</t>
+  </si>
+  <si>
+    <t>FRA013</t>
+  </si>
+  <si>
+    <t>FRA014</t>
+  </si>
+  <si>
+    <t>FRA015</t>
+  </si>
+  <si>
+    <t>FRA016</t>
+  </si>
+  <si>
+    <t>FRA017</t>
+  </si>
+  <si>
+    <t>FRA018</t>
+  </si>
+  <si>
+    <t>FRA019</t>
+  </si>
+  <si>
+    <t>FRA020</t>
   </si>
   <si>
     <t>pas cadre</t>
   </si>
   <si>
-    <t>agent de securite</t>
-  </si>
-  <si>
     <t>cadre</t>
   </si>
   <si>
@@ -166,23 +169,47 @@
     <t xml:space="preserve"> cadre</t>
   </si>
   <si>
-    <t>developpeur</t>
-  </si>
-  <si>
-    <t>gestionnaire comptable</t>
-  </si>
-  <si>
     <t>agent d entretien</t>
   </si>
   <si>
-    <t>gestionnaire production</t>
+    <t>sécretaire</t>
+  </si>
+  <si>
+    <t>agent de recrutement</t>
+  </si>
+  <si>
+    <t>Logisticien</t>
+  </si>
+  <si>
+    <t>Agent d'audit</t>
+  </si>
+  <si>
+    <t>Assistant de direction</t>
+  </si>
+  <si>
+    <t>gestionnaire RH</t>
+  </si>
+  <si>
+    <t>Agent de recouvrement</t>
+  </si>
+  <si>
+    <t>Celibataire</t>
+  </si>
+  <si>
+    <t>Community manager</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Manuttentionaire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -195,6 +222,12 @@
       <sz val="14"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -535,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,16 +580,17 @@
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,25 +624,28 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2">
         <v>36605</v>
@@ -617,33 +654,36 @@
         <v>45735</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2">
         <v>36606</v>
@@ -652,33 +692,36 @@
         <v>45736</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2">
         <v>43546</v>
@@ -687,33 +730,36 @@
         <v>45737</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J4">
         <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2">
         <v>36608</v>
@@ -722,33 +768,36 @@
         <v>45738</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5">
         <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2">
         <v>39531</v>
@@ -757,33 +806,36 @@
         <v>45739</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2">
         <v>42088</v>
@@ -792,33 +844,36 @@
         <v>45740</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7">
         <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2">
         <v>36611</v>
@@ -827,33 +882,36 @@
         <v>45741</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2">
         <v>36612</v>
@@ -862,33 +920,36 @@
         <v>45742</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J9">
         <v>9.0299999999999994</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2">
         <v>36613</v>
@@ -897,33 +958,36 @@
         <v>45743</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J10">
         <v>12.13</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2">
         <v>36614</v>
@@ -932,33 +996,36 @@
         <v>45744</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J11">
         <v>12.5</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2">
         <v>36615</v>
@@ -967,33 +1034,36 @@
         <v>45745</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J12">
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2">
         <v>36616</v>
@@ -1002,33 +1072,36 @@
         <v>45746</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2">
         <v>36617</v>
@@ -1037,33 +1110,36 @@
         <v>45747</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J14">
         <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2">
         <v>36618</v>
@@ -1072,33 +1148,36 @@
         <v>45748</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J15">
         <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2">
         <v>36619</v>
@@ -1107,33 +1186,36 @@
         <v>45749</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J16">
         <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2">
         <v>36620</v>
@@ -1142,33 +1224,36 @@
         <v>45750</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J17">
         <v>26</v>
       </c>
       <c r="K17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>36</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2">
         <v>41004</v>
@@ -1177,33 +1262,36 @@
         <v>45751</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J18">
         <v>11</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2">
         <v>43561</v>
@@ -1212,33 +1300,36 @@
         <v>45752</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19">
         <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2">
         <v>42832</v>
@@ -1247,33 +1338,36 @@
         <v>45753</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J20">
         <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="L20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G21" s="2">
         <v>40641</v>
@@ -1282,16 +1376,228 @@
         <v>45754</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J21">
         <v>80</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100654329B97B503A49AABBB110B3A1CE9F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="cbeca0e78f2af041d481eb5f034a155f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8622fd7-cec1-4731-a423-3ed22d3b9aea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bec814e9f48df65f8f22e78da7713096" ns2:_="">
+    <xsd:import namespace="d8622fd7-cec1-4731-a423-3ed22d3b9aea"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8622fd7-cec1-4731-a423-3ed22d3b9aea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E44696FA-E9AD-4C2C-93D2-F9959A7DA036}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{902A16D2-C5CE-445B-8161-E940C27F63FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D2F0239-18F3-48C9-9FC7-EB8CC014546F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d8622fd7-cec1-4731-a423-3ed22d3b9aea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>